--- a/medicine/Psychotrope/Liste_des_noms_désignant_le_cannabis/Liste_des_noms_désignant_le_cannabis.xlsx
+++ b/medicine/Psychotrope/Liste_des_noms_désignant_le_cannabis/Liste_des_noms_désignant_le_cannabis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_noms_d%C3%A9signant_le_cannabis</t>
+          <t>Liste_des_noms_désignant_le_cannabis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cannabis a plusieurs noms différents, que ce soit en français ou dans d'autres langues. En anglais, il existe plus de 1 200 termes de jargon pour le désigner[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cannabis a plusieurs noms différents, que ce soit en français ou dans d'autres langues. En anglais, il existe plus de 1 200 termes de jargon pour le désigner. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_noms_d%C3%A9signant_le_cannabis</t>
+          <t>Liste_des_noms_désignant_le_cannabis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Noms latins et scientifiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le « cannabis » est le nom latin et scientifique de toute la plante chanvre, légalement connu sous le nom de « marijuana » dans plusieurs juridictions[2],[3]. Les noms des trois espèces reconnues sont :
-Cannabis indica[4]
-Cannabis ruderalis[4]
-Cannabis sativa[4]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le « cannabis » est le nom latin et scientifique de toute la plante chanvre, légalement connu sous le nom de « marijuana » dans plusieurs juridictions,. Les noms des trois espèces reconnues sont :
+Cannabis indica
+Cannabis ruderalis
+Cannabis sativa</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_noms_d%C3%A9signant_le_cannabis</t>
+          <t>Liste_des_noms_désignant_le_cannabis</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,27 +560,69 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Argot français.
-Beuh[5]
-Marie-Jeanne[6]
-Washmeuh[7]
-Shit[8]
-Herbe[8]
+          <t>Argot français.</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Beuh
+Marie-Jeanne
+Washmeuh
+Shit
+Herbe
 Haschich
-Kif[8]
-Chichon[8]
-Teush[8]
-Ganja[8]
-Taga[8]
-Weed[8]
+Kif
+Chichon
+Teush
+Ganja
+Taga
+Weed
 Zamal
 Kaya
 kush
 skunk
 Zaza
 Zatla (en algérien)
-Noms pour désigner une cigarette au cannabis
-Bâton de joie[9]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_noms_désignant_le_cannabis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_noms_d%C3%A9signant_le_cannabis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des noms différents</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms pour désigner une cigarette au cannabis</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Bâton de joie
 Joint
 Buzz
 Rnef
